--- a/biology/Botanique/Hanns_Kreisel/Hanns_Kreisel.xlsx
+++ b/biology/Botanique/Hanns_Kreisel/Hanns_Kreisel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanns Kreisel (16 juillet 1931 - 18 janvier 2017) était un mycologue et un professeur émérite allemand.
 Il est né à Leipzig en 1931. Kreisel était professeur à l'Université de Greifswald. Son domaine était la classification des funji, où il a étudié ce groupe d'organismes non seulement en Allemagne mais sur presque tous les continents, comme au Brésil, aux Seychelles, au Vietnam, à Cuba et en Syrie. Il avait réussi avec sa première collaboration à développer une flore fongique scientifiquement solide et actuelle du Yémen. Kreisel s'est également spécialisé dans les groupes fongiques des champignons intestinaux.
@@ -513,10 +525,12 @@
           <t>Taxon éponyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chrysosporium kreiselii Dominik 1965
-Kreiseliella U.Braun 1991[1]
+Kreiseliella U.Braun 1991
 Kreiseliella typhae (Vasyag.) U.Braun 1991
 Meliola kreiseliana Schmied. 1989
 Passalora kreiseliana U.Braun &amp; Crous 2002
